--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/63_Ordu_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/63_Ordu_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{830A677C-84EE-486F-94B4-1C1BD18FDC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{894AC0D4-393C-4FBB-BAEC-F4BA4E5AA12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{4DD04E62-EBE8-425A-8966-086F242447C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{553B7799-C59D-4B75-8547-BFF2CBA95FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -953,14 +953,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{75D71EB5-187B-4B09-B7C4-4FB29B7DE644}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{EC5B9579-E262-44E3-934E-1AE1DE46E169}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F3DAF1D7-3B53-4F90-A33E-5BBD3CC71EDE}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E7FE10D4-862E-4E85-8043-79BA7B2E122C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{8D9912AF-1BE5-47EF-8735-A40A5679A454}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{68E6BC07-4E66-4755-8B06-C2C759616AC6}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{1453DB45-A3DA-400D-9422-90E904363E26}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{90D6619D-EDC1-4706-B255-F0F817AADA1C}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6A13BF60-02BA-4365-A14B-54A8DD7A94FC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8125CCCF-7F7A-4F6B-BEE3-980630E8F3F3}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{6D064118-783F-46C1-8886-643E0A82EB92}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{777B5AB9-B5C8-47A6-B99B-7E4B9007E8A9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{E01F28BC-4085-4A12-B8DE-563945DBB618}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{8CD3A7F1-C13E-46AE-8D18-ED72D084D4D0}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{DA25060E-4879-466E-BBE9-378788C60AC6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{E6C284C9-FEEE-4455-B042-52619B02BA03}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4693115A-75A7-4279-AFEB-6B9D27F98CE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBC1F8B-B136-4BB2-977D-AB57210C3DF1}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2580,18 +2580,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17BF12B7-9EA1-4507-AF29-1A78C1D45387}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC71684C-48A7-4235-A731-02F6B4D5256F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A9E8FCC-54B4-495A-87DD-EB9BBA77F372}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{842CA663-37B7-414D-923B-55A4786F5A59}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{52D295DD-9E47-478F-90E1-8C794A8DCD73}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{919C1EE8-AFB1-40AE-9DA8-25A18DFFF87D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11EB9E70-6150-48EB-9670-3123514237CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{019CC8E7-7A2F-4DAA-9C55-0A97CE33339B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87DE5F0D-4DC6-44FB-8374-4D581B0B0997}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E075E8B8-D366-45A1-8A50-C2BD09C852CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41BC50D1-E91E-4A86-9DB1-5BD896EDCE8F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DBDB6876-2637-462E-A160-F72FD010CD96}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B338658-AFD6-4908-9A72-C9FC956A478B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D474B90-3F33-425B-BC13-2E18168DB529}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{02FA23F8-3120-4802-A467-AAB4FA9F1F4E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B30AC0F4-69C3-427B-9FF0-FF53CE76D76E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{418D978A-E745-47D3-8FE0-3CA58C5B8067}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD8CEBED-FBE5-47B0-B218-3DF5859E766C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2A9C64F-AAFA-4915-8BE5-E4BB81708BD3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A93C8EA0-EBDD-4989-B9C6-638D35BA5C25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31A5741B-2DE5-4514-B999-38E7DAA82D39}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A56C6ED2-1BB2-4F84-AB41-61DF6645E31C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DFA57CB-C806-4AC2-B050-654B72306E40}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D19160E3-7207-408F-A59E-AB0826E4943E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2604,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE2C56-2A0C-4CE6-A260-B99E16C75411}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4566F401-FA4D-4FF1-8FAD-90E9996B66B3}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3840,18 +3840,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BFC08638-3474-498F-A38E-0A2942D1C7AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{648D47F1-B420-42A3-98A4-D6E5A66734B2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A322C1BD-C5F7-47B8-8F3C-B272E4FD9632}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FAAC9CAA-B4C8-4739-9F64-A9711C7D1CEE}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3E2BF503-4A36-4F2E-A5F6-96F41C3EE410}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85FC684E-4FE8-49A7-9497-D9A810A3F269}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8253FC6A-747C-4A93-B9FF-8483FDD97718}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F627F13E-9F98-4F78-A745-0D4C26ACA3BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{40481185-DECF-4227-BA31-53A2C731AC00}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D2F590DE-5E88-4D06-B595-7B6864F6E39A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5ED85FE-304B-48E7-8568-7760985E9080}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02B318D7-2B80-4216-83BC-B9A863FC9FA7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DEE91518-0770-4677-BC80-FFAD17BF240C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5838D418-7DB4-44A0-AB0D-5DAA24A73FDE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{39CCDB6F-4550-4CC3-89CE-7A36A6444469}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB88C77C-1068-4658-9AAD-48A070D3FD11}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{139003F8-6F37-46BA-8AA6-5EC81D9E6CA1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79914C74-9CD8-4346-9E29-DDFF06F8557B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFACA4D7-EF2F-479A-927A-A41788EFD73F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66BA4EF0-2F60-4CE5-B5BD-7EF37091697D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CEE760DA-24ED-4C67-B5AB-B3649E2E41CB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{934C9334-12E7-490A-8F15-A21B67BC005E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2AE50A35-4826-4918-AA23-3F665D477567}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B23668CC-6F0C-44BA-8F6F-2B2D8BFEC83C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3864,7 +3864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48F65C2-F79A-4A71-A7F0-4AC6F28AAB40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB765F6F-D38E-4C39-A476-B197F871EC9D}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5096,18 +5096,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72DAA494-2769-4089-85E0-A9D18094FA7B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD052401-1C25-40D1-B125-862198B92F57}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{43FA9288-A95E-431F-85B2-B33320E1DFD7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3CC9B8F9-2EC1-44BB-979B-F5893C1D009C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3C56DB05-B99C-4387-8F8C-6264FAECF607}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D27341EE-F537-49CE-8DB3-1B73DA92A9B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E3B62DB-6863-4CC8-8284-74D743B6542E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92BDDCFB-59A6-4028-80CA-49B78D7A8F61}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CE4747F-AE76-4177-9E55-D48625C0E20F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EB0AA531-D9F3-4F57-B615-07E861666913}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B52CB5B-C919-417F-83ED-A8BE2DD9956D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D73B931-2CE0-420D-BF27-722AC9E8D016}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3020F62D-1C85-4F50-85A4-2FD1AF66D0B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BFA05940-B83E-4528-92C4-146718F6D885}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8A6DFAD4-CCC4-4302-A0A1-DA6AB1241EED}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CA3A57B4-51D9-4418-8B12-D2896BD2391F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{94892C1C-A54E-43CD-936B-0AABC7E659A6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16E3FA2A-8E7C-4065-A2C4-0396043346AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC896C18-4756-4F4F-847F-F6318929FB1A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1320A933-DC4D-4418-B53A-D45A84874580}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AAF66620-A6EF-41B7-ABD8-F580EEB3F7A7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E469D833-7143-483A-9110-FC75AF1092D9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{526F1BE1-0952-4839-9C36-C2CAA2C67E7C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7CE7104-6412-46BE-8C20-5B672DABE05D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5120,7 +5120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9F52D9-E9E1-4D03-B989-F73011F97826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE56E67-5A37-4EE5-988E-11452BB7FBE4}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6344,18 +6344,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8080DE9-2FCD-4CF7-95C8-5BA7DE313596}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30F33C87-5AE1-4402-B427-787D54D8D653}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{06EE0D20-023E-48E3-A77E-A3768CDDC480}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{900D5B0F-4770-4982-9D90-26D888C390D0}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6A4E2265-505E-4DA2-8AF8-6A10BFF7A29E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B96E72C-DE55-4DF5-A878-45EC6952124B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8C075B4-A5F4-42D7-9039-593F9253A2BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{252FCB7F-ECD2-4BEE-8AF5-10A8D9A6596A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B502B6C9-0927-4D9B-A441-5CA0A3CB99EF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{60873F08-1AF0-462A-BE34-7352DF5096A5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F37C0EE7-BAA8-46BA-9891-5F974DC33F2E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{851AE530-8D86-4B1D-AC6F-8D582678563C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BF917F5-AA82-4421-973F-E0654885E201}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8DC7158C-E72A-4F9C-AC41-470E4D5ADD82}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{87D86FD5-5D9E-446D-979B-401FDE0EA3FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ADA9C9DB-6D52-40E0-858D-1AE3B9C100B2}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7978AD6F-655A-4C57-A638-4884F450B847}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB30C2B7-3C2E-421E-A22E-703EF7169C15}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE496978-6307-4454-85CE-9ABB257DE550}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C51545F3-740D-4BE3-AB34-71D6CFFD0AE1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52BB4CAF-E00F-4F06-B129-E0BA27D7EDC9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E64DC94A-15D2-49E0-9A3A-1B7FEE09FFCF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A330106A-2C21-437F-93E5-8D6576C37383}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33323950-2361-4F37-BA37-84048A67FED3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6368,7 +6368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7BC189-06D4-4A5A-93A2-347DEA1497DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DCA622-4ECF-403D-AB9C-368118A6BEBC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7615,18 +7615,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E033D24-E35B-41D7-ADCB-6D5F80F9E376}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF4878E3-0779-4533-99E6-0AE116F6F8DD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5774BACB-C84A-481A-A8E5-6BAE67A2D068}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8239B8A1-16F7-4A27-8079-A0A840D62CB0}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7179DAD1-57DC-4183-8D5B-0133567AF1D1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{298755DB-C3BA-46C1-97BE-0D0777F7D766}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{865D46D4-FFD4-4E01-94FC-64AFCCA372C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{205C93A7-0E83-47A9-90D3-E64311FCA2F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4C6411A-D971-417C-9B08-31E37CD75414}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2D0D69E0-523A-4144-A641-F565B40ED527}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2075A0E9-8396-4B4A-A832-B7BFE36DE72A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{558913B9-2871-43FD-A6C6-44243BE0DC3E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADD14E34-CA75-46E1-B7A7-89BE34CAB0C1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{933A8332-A922-49AC-A3D4-611B39853145}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CC011628-CF56-4A86-B13E-D3C8740A726A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{517C6139-245D-4E2B-8303-42E3BF386C94}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E9C8CD11-5E50-4E33-B32C-B7C3CE26DEF4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E909B7CA-7FD2-48F2-8185-1DC85FCCEF0D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37EE4AA4-9616-48BA-8D24-8158406A2278}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4CDAC6F-A084-469E-B6D0-6844658D0840}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D4617776-CF43-4B7F-A7A3-F3971CFB8B01}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24A35774-E3AD-4E5D-963E-FD90618174F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4580DFA8-EE36-40D4-898D-84C84770C632}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6FB7D6A2-62F5-4157-8AE9-B70E0D19DB23}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7639,7 +7639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B76F794-4A23-4411-BFB9-D8AE635BF8BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE8EBAE-7706-4722-A096-6C9A86DF6030}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8886,18 +8886,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27F6E457-2591-47D9-A962-6BA023E29630}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D53BD2E-0CAD-48D9-A96E-803C3B3D02FD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0DC7FDDC-16F9-4EFD-95A0-00E14DE15A80}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0D3B7885-BFD5-4AF5-93FD-92338F803E12}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9E7A116B-D4F4-4C1F-818D-8FC53000EC6B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BD3334D9-3C24-4BBD-BF42-12C023956DEF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE5C0797-C1D8-46D6-B6FF-D85BADC566F9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{141F9A5E-9E1D-432B-B317-15E5B43E1CF1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A8A61187-D95F-4498-8385-F27FD6E0DBFB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6E42B523-0633-4938-9FF8-5AD6D1817FF2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63A12974-9AA6-437B-B720-A26C8FC4358C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5692440-C9EF-4090-AB8D-84970C7627D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30BFA383-CE4D-46DA-9F1E-F1FCE4724928}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21368AB0-EE74-46D6-BA3D-9F2D3E8AD0B2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1379ADE6-D402-4524-8443-3F94C02406C0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84919D61-83D9-4566-8738-A43809AD46BB}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CC3CB7D3-9BCC-4110-8FE0-BCA7A4BDD21C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BBFC00A-F11C-42FC-BB5F-AC94DBCC5C38}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{74864846-254B-4C1A-8B22-9508102E3A03}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B00CA193-C5F3-44EF-9E67-017F394A3788}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F4A528BA-1761-43BF-B672-F2E1CD8DFDB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C57F11B8-E4AF-4D23-B57D-7B664020638C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E41AE368-8CE4-4F99-B36A-CA1C12C9B640}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD3D4DD5-DC93-43EE-8D6D-1A1357CA7589}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8910,7 +8910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFDED61-D70C-4D5D-80F6-8CDB587571CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BE0089-8C1B-4F27-BED5-A1F674043F01}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10157,18 +10157,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{014CA7F5-4307-4A92-9B2C-AE824286F5E0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{128986AC-8BE3-4FEA-8DDF-0782BFF8CA45}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C3659B99-FD0F-429D-BA61-9F1CB7860F46}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{138D785E-9D55-4EB4-A3AC-94EB67F665BB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{1A8231F8-A3D7-4384-9044-F7253619A2EB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B90B6F01-6B6E-4782-A517-84DF5F13F747}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{01DB5499-A653-4B4F-AD09-A92240F90FD3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{140FA7E8-D132-4D2B-8DCE-38F91EB1E7B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7857595-A569-403F-AE7B-8047116B1248}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{64D9A4F1-4062-42B3-82B7-FE6D47686676}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57B44374-D30A-4185-B30A-58A662760A11}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8A315C5-1409-4318-A577-AB7852616C7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FA5A130-8CDE-4E4E-9A06-A45587E4AEB8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{012C36EA-87D6-444F-B479-390E762E71AC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B27080B8-0526-4B41-A1D9-DA6DEC3F09FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6DE3C54-8004-4823-999F-357E383B3609}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2AD8BE0B-7C18-413C-A342-EAF7779CEAF6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C7F47B6-9338-49D0-8F19-2BA4F37DC813}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89341C02-D4E3-43FF-8792-D3A7F654B3E4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05D70CEB-2360-421A-A301-8A1CD496188D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E6A53A9-6EF9-4FB0-AD9E-7CD2DE3D064B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1969A35-B4C9-4A50-99D1-F69F1DCD66E7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{443CFE75-40FF-45AE-A1AC-2BB17E3C9A5A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58547BC0-79D2-496B-97D9-05C354B62D24}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10181,7 +10181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6A11E3-0F6B-4BA8-9869-A6509FC5541F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7D17C9-5C3B-4CED-BC8D-FE8AE8709918}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11429,18 +11429,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25D24C46-5BFB-4ABF-8648-7EE59E367CF1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{661618DD-B3B2-46C4-B4C9-3512145B6870}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F0A65330-1A7E-4754-AD28-1B83D3FF25E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FCC882C3-08EB-4799-8FBC-A4CC0E4295B1}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DCCBF010-50C6-4D5D-9D12-E7F95760C40B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AAAC40E1-07E5-4E9E-A5B1-D12116B4F7D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{878AAB7D-53BC-4BD3-B5E2-BED0E9BAC78A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96F8042F-ED96-4C89-9C12-D19A808D71ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D1EDA25-20DC-44BE-B9DF-8AA994EAB6D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9BE8406E-7A4B-43D6-A1CD-67B1A4F65EE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D173210-19D0-4AF8-B32B-EEEADC010DF7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE1405FF-D1B6-43C5-8960-A1E19908DE92}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7698CEA5-01BF-4553-B805-70A18CB39498}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC0FFE6C-D434-4C8C-94A7-C0FA304B5A43}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6A00EDD9-B766-41D5-86A2-D57E8CBF6288}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{657B3614-089F-4F69-B7F6-895280A809DA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0860F329-71CD-4D3F-83B7-230DCF83E2FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{18C1F433-F529-44D9-89DA-461B0EB95A38}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{286C6CB3-1FB8-4B37-AECF-7F62012C5D7D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B381BDF-8549-43F3-B754-A8D222F346AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C20CF8CB-64C1-4720-9820-7B973A3CA12B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F4F38BF9-9428-425B-905B-84DB509460E5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B245862-78B8-412E-ACC7-25A246275007}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5223E315-2466-4843-8E25-FE7497CC0477}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11453,7 +11453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928CA520-3C05-4AC2-BA7C-EB50CB3DD436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F07CF1-A14D-49F7-B295-75D56DEF586C}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12697,18 +12697,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC851D76-27FA-4C83-B0C8-2E765C98AFD8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{681A6C34-7CB3-4B9E-AD87-5219B3D44AFE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{65A47BF8-5339-49EF-93AE-4ADE18EEBB74}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{889C26BD-FCD5-46A5-84C4-547CC7227FD0}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C35EB328-592D-4BCB-8FD1-4489564EDAE4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ACBBD574-6BEB-4BFB-8B24-9B340320B2CF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3380E2A2-7DE6-4775-8A0E-E589B54FA0F0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99DA4500-4401-4FE4-8E5F-8070C150E007}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61EA5D39-7753-4B5C-9F94-15523915B9DA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0BD3D3C3-8578-44EE-B91F-5AAE82387A2F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34DC092E-1088-4CAA-B866-3C615DAEA429}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6848FD4-7C3D-40A6-B55A-854E5887CCF0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D18F8FB-36B8-4EAB-BC1B-C7D457CEA7F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA73AE24-16F9-4964-AEC2-56DBD5C96A2B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05D44584-BB90-4846-82DC-B06D653520A0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A667C2F-5305-42EC-BFC6-C1B01FCC8A04}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5E46906A-00FD-4EE0-BF43-3012C8DF823F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{267D4138-AC60-4DDA-B850-E648EC4A5F21}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF0174EC-CE81-4ED2-B51C-3CA08CDBB12D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9276A472-7F24-4F8D-88F4-F5F17ED1DB7E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F78A394-201B-4822-824A-5825954A96D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F9A27F6-A04B-42D0-9AE2-902C4FDC4922}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CE56E70-FB2A-40B8-B20B-788F664D4B7B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A4CCEC7-AAB6-4216-8438-FA81E47595F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12721,7 +12721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE13DC7-2E67-4493-BDF8-F23C4C5578FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABCE8FE-3765-4C81-ADBD-FD9122100801}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -13965,18 +13965,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68AB726A-AF36-4011-9558-249198870C18}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{992EE6EE-7020-49B7-9AA4-2F6AA89D463D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B145F227-69CC-438C-A9B5-EC54FBC0291E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA72BBF4-3AC0-4CD7-9BEB-F27948BC9A70}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DFEF6E79-4B43-4B04-9725-1828F2034794}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{954222AD-6EFD-4800-B08A-081B522AB5EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8521D4B8-E4E4-4FD3-B4F1-58BE734CB45B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20BC7D8E-0BA8-46DE-B50F-047014211846}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B020388D-B759-4931-BBC0-AD20724D6E2B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2D7B12A6-D6DA-474F-AEDB-2BEE7F52B1A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{575F2D78-7DE3-48C4-9AF7-2DF100BCBA9C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D597520-A648-4220-92E0-9B59CC4EA696}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{58E43C71-C094-4A34-9C52-538BD02F7244}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D43BFC2D-F7C0-4FBF-A39D-30996AE7D63D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F895C805-7415-4092-BDC8-C2AFD01A85CD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B20F0D10-2311-40A1-AA52-F240E71FAE6C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8ED915A4-631E-40F3-B3A7-6C4F2A581B5D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9C7ABA9C-EAE2-4842-A5CB-86AF33F1FDDB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3D6B6D17-DD7B-4FB5-91B3-56F3EFC87666}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EFCEBD6B-2B0E-489B-B2F9-9404F4134B3C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{49865FE9-FD06-41AC-82A2-A72AB4841C64}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{521E3DA7-C7BC-448D-AA58-D84F9BD153C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23A309E7-6196-4E8D-990B-62DAC38A0CDD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{038E54F1-FCE4-459C-903D-840CD1D40D33}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13989,7 +13989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27BE3C4-EA30-48D1-86BF-977E1A88312D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D4D5C4-3D5A-4535-B609-FA8F4B5E4DED}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15233,18 +15233,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BDBE674-23EF-4A1D-B9FD-EC38C4C6C025}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1FDE01C-D7A7-42B7-BDE1-E12ACC4D6489}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E6922B29-8FDC-4C4E-B5F2-52541A39AE46}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1FA9CBC-E891-4E46-ABE1-1784F83758D7}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6BB82862-AD14-48F3-AF63-7B00DA350AD6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA1BF8F6-9E22-4368-BF9B-22BD4AD277AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{461C0A07-4E25-4CBF-80EA-BF438DB66FE0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E805DF36-A9EC-4F05-BF03-363B206EB1E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC00B99C-406B-4F2B-86CB-4A99F16BFE02}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61B45A5D-2B9C-40FC-BF69-39E04C2335D0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0782443F-3F15-49FB-9AE0-EBC91440A78F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2222970-BA0A-4662-9584-F4AD4423D471}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03BC761E-A80A-463B-BB42-AAE892BC9813}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AF330D2-C197-4C7C-B666-46C52644E4CE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BDA46691-5B76-4A55-A23C-058B36C16A38}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{575A9386-9984-4A8C-9BCA-1725ADBFE045}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A9C3F785-78D2-449C-8667-D05AC72A684E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B0A6F688-0952-4B9C-A129-547635CCDDB5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E619E35-9D2A-411A-BC5C-9A7EC7D254D7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12EAB945-3589-4625-8433-BDDA5241A11E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E417EB25-CDD7-4FE9-A27C-1B075056ECB0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{64F05C40-6FB9-4269-AE89-131F56EF68A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F35E5EA-0585-445F-AAE5-DEA666205F80}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF3C5800-1A02-4B62-8212-A5939A2AA746}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15257,7 +15257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF91F0F7-D750-41F7-B64A-000035151E27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7455B722-C110-42CE-8628-28E4E2D8341C}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16501,18 +16501,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53B05CBB-E494-473F-807D-721391BA2B27}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BFED5A33-BEBF-43D3-BD9F-E36E9C820CC8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BE3B9CC5-CCE8-42AB-B321-513FD6E660BE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6606B8C6-1600-4DAF-9CA9-CA696735D017}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A2E2756D-1DDB-411E-A82C-5A84648BAE48}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{91B9F82B-C309-48AA-9E06-4BE992FA43A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92449CD1-8DF1-41C8-B547-3FB0C42FAE51}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FAD2BC2D-B45D-444C-9263-0340616674BC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C853D9E5-F33B-47FE-8289-13EADAD33653}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B9BA301-CA92-4096-BDBC-5F2966E2E289}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6704090-C138-4918-9CDE-4EF56689B99C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7F9F3CF-FE00-4933-90E0-5D4A42FD2A21}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32D14751-FD5C-4F64-A145-48400D1C2519}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C10BA7ED-634E-4A53-8AE6-20F120968D50}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BAF5C540-289A-45F4-8F95-D55244483938}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{50A581B9-CBD0-4774-AACC-E1028D8CCE86}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D99BCE95-9285-4ED2-9F5B-6066247FFE03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D436B420-A433-4FFB-9AC9-4F449601E938}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{216D77CF-F42E-4586-8373-78D06C3B1D6F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F04A5AB1-37D5-44E9-BF56-CFF707B98711}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38BEEA3E-B192-43CB-8D81-A26602552CA0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1639BBD6-9EC4-4317-B5AB-047F02A75488}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D68802BD-7906-40BD-87E4-2466CFC78DF0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A94D6D4-7118-4D64-8293-BF797E70AE53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
